--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5538922155688623</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.5535714285714286</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.5535714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4940476190476191</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08308635029697818</v>
+        <v>0.07437108648678656</v>
       </c>
       <c r="J2" t="n">
-        <v>1076.044881311254</v>
+        <v>936.2943790795417</v>
       </c>
       <c r="K2" t="n">
-        <v>1617732.063569796</v>
+        <v>1151484.814684168</v>
       </c>
       <c r="L2" t="n">
-        <v>1271.900964528998</v>
+        <v>1073.072604572574</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7018712230409299</v>
+        <v>0.787795045162668</v>
       </c>
     </row>
   </sheetData>
